--- a/Portfolio/NewRsk.xlsx
+++ b/Portfolio/NewRsk.xlsx
@@ -1,33 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\MatLab\FX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80385FD-7406-45B9-B8E5-F01788455566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="750" windowWidth="30270" windowHeight="19020" xr2:uid="{A29C28C7-7890-45C4-8BD1-2D12132B1C9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="16395"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +120,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +132,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +179,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +214,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -409,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97FB0AA-D45F-4A8D-8FC0-A94CC3E9DC57}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E29"/>
+      <selection sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +399,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.69</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -457,13 +413,13 @@
         <v>1902183089</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -477,10 +433,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1.79</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -488,16 +444,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>940998381</v>
+        <v>1500015628</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -505,16 +461,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1014922733</v>
+        <v>1522032606</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0.17</v>
+        <v>2.1</v>
       </c>
       <c r="D6">
-        <v>0.12</v>
+        <v>2.1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -522,16 +478,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1500015628</v>
+        <v>1545108803</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -539,16 +495,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1522032606</v>
+        <v>830471345</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.66</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>1.1599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -556,10 +512,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1545108803</v>
+        <v>100696801</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0.1</v>
@@ -573,16 +529,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2132542198</v>
+        <v>1100805552</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.38</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -590,16 +546,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>235142755</v>
+        <v>1214250561</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -607,16 +563,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>395510108</v>
+        <v>1371274123</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>2.48</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -624,7 +580,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>788659840</v>
+        <v>1610612861</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -633,7 +589,7 @@
         <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -641,16 +597,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>816343056</v>
+        <v>1809382033</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
         <v>0.1</v>
       </c>
       <c r="D14">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -658,16 +614,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>830471345</v>
+        <v>218891067</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1.85</v>
       </c>
       <c r="D15">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -675,10 +631,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100696801</v>
+        <v>26278542</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
         <v>0.1</v>
@@ -692,16 +648,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1214250561</v>
+        <v>870843266</v>
       </c>
       <c r="B17">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -709,16 +665,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1371274123</v>
+        <v>932970289</v>
       </c>
       <c r="B18">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -726,16 +682,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>158892401</v>
+        <v>1173749970</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -743,16 +699,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1610612861</v>
+        <v>1251868241</v>
       </c>
       <c r="B20">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D20">
-        <v>0.28999999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -760,16 +716,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1809382033</v>
+        <v>1333067343</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -777,16 +733,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>200245811</v>
+        <v>1902706256</v>
       </c>
       <c r="B22">
         <v>0.1</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0.47</v>
       </c>
       <c r="D22">
-        <v>1.29</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -794,16 +750,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26278542</v>
+        <v>829424033</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>0.1</v>
+        <v>1.32</v>
       </c>
       <c r="D23">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -811,13 +767,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7669135</v>
+        <v>973684048</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>1.92</v>
       </c>
       <c r="D24">
         <v>0.1</v>
@@ -827,88 +783,54 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>932970289</v>
+      <c r="A25" t="s">
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>37</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>973684048</v>
+      <c r="A26" t="s">
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>0.1</v>
+        <v>806</v>
       </c>
       <c r="C26">
-        <v>0.37</v>
+        <v>1763</v>
       </c>
       <c r="D26">
-        <v>0.63</v>
+        <v>2272</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>0.36</v>
       </c>
       <c r="E27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>582</v>
-      </c>
-      <c r="C28">
-        <v>1197</v>
-      </c>
-      <c r="D28">
-        <v>1552</v>
-      </c>
-      <c r="E28">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>0.31</v>
-      </c>
-      <c r="C29">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="D29">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E29">
-        <v>0.307</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
   </sheetData>
